--- a/BT_KTPM.xlsx
+++ b/BT_KTPM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tl_hoc\Software_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCC7D43-C092-424E-AE46-D0986560F0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF307318-6E65-4A2C-A481-D37F62B55631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="778" firstSheet="5" activeTab="13" xr2:uid="{7047DD55-1D6A-471A-8DD9-043E6368546C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="778" firstSheet="10" activeTab="19" xr2:uid="{7047DD55-1D6A-471A-8DD9-043E6368546C}"/>
   </bookViews>
   <sheets>
     <sheet name="Buổi 2 b1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,12 @@
     <sheet name="Buổi 3 b2" sheetId="13" r:id="rId12"/>
     <sheet name="Buổi 3 b3" sheetId="14" r:id="rId13"/>
     <sheet name="Buổi 3 b4" sheetId="15" r:id="rId14"/>
-    <sheet name="Buổi 3 b5" sheetId="16" r:id="rId15"/>
+    <sheet name="Buổi 4 b1" sheetId="33" r:id="rId15"/>
+    <sheet name="Buổi 4 b2" sheetId="25" r:id="rId16"/>
+    <sheet name="Buổi 4 b3" sheetId="26" r:id="rId17"/>
+    <sheet name="Buổi 4 b4" sheetId="27" r:id="rId18"/>
+    <sheet name="Buổi 4 b5" sheetId="28" r:id="rId19"/>
+    <sheet name="Buổi 4 bt_them" sheetId="29" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="316">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -978,6 +983,181 @@
   </si>
   <si>
     <t>Số rule = 2 ^ 4 = 16</t>
+  </si>
+  <si>
+    <t>using System;
+using System.Collections.Generic;
+using System.Linq;
+using System.Text;
+using System.Threading.Tasks;
+using Microsoft.VisualStudio.TestTools.UnitTesting;
+using BaiTapKiemThu;
+namespace BaiTapKiemThu.Tests
+{
+    [TestClass]
+    public class Bai1_PowerTests
+    {
+        public void TestPower_N_Equals_Zero()
+        {
+            double result = Bai1_Power.Power(10, 0);
+            Assert.AreEqual(1.0, result);
+        }
+        public void TestPower_N_Positive()
+        {
+            double result = Bai1_Power.Power(2, 3);
+            Assert.AreEqual(8.0, result);
+        }
+        public void TestPower_N_Negative()
+        {
+            double result = Bai1_Power.Power(2, -1);
+            Assert.AreEqual(0.5, result);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>Kiểm thử</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>using Microsoft.VisualStudio.TestTools.UnitTesting;
+using System;
+using System.Collections.Generic;
+using BaiTapKiemThu;
+namespace BaiTapKiemThu.Tests
+{
+    [TestClass]
+    public class Bai2_PolynomialTests
+    {
+        [TestMethod]
+        public void TestCal_CorrectCalculation()
+        {
+            List&lt;int&gt; heSo = new List&lt;int&gt; { 1, 2, 3 };
+            Polynomial poly = new Polynomial(2, heSo);
+            int result = poly.Cal(2);
+            Assert.AreEqual(17, result);
+        }
+        [TestMethod]
+        [ExpectedException(typeof(ArgumentException))] 
+        public void TestInit_InvalidCount()
+        {
+            List&lt;int&gt; heSo = new List&lt;int&gt; { 1, 2 };
+            Polynomial poly = new Polynomial(2, heSo);
+        }
+        [TestMethod]
+        [ExpectedException(typeof(ArgumentException))]
+        public void TestInit_NegativeN()
+        {
+            List&lt;int&gt; heSo = new List&lt;int&gt; { 1 };
+            Polynomial poly = new Polynomial(-1, heSo);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>using Microsoft.VisualStudio.TestTools.UnitTesting;
+using System;
+using BaiTapKiemThu;
+namespace BaiTapKiemThu.Tests
+{
+    [TestClass]
+    public class Bai3_RadixTests
+    {
+        [TestMethod]
+        public void TestConvert_ToBinary()
+        {
+            Radix r = new Radix(10);
+            Assert.AreEqual("1010", r.ConvertDecimalToAnother(2));
+        }
+        [TestMethod]
+        public void TestConvert_ToHex()
+        {
+            Radix r = new Radix(255);
+            Assert.AreEqual("FF", r.ConvertDecimalToAnother(16));
+        }
+        [TestMethod]
+        [ExpectedException(typeof(ArgumentException))]
+        public void TestInit_NegativeNumber()
+        {
+            Radix r = new Radix(-5);
+        }
+        [TestMethod]
+        [ExpectedException(typeof(ArgumentException))]
+        public void TestConvert_InvalidRadix()
+        {
+            Radix r = new Radix(10);
+            r.ConvertDecimalToAnother(18); 
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>using Microsoft.VisualStudio.TestTools.UnitTesting;
+using BaiTapKiemThu;
+namespace BaiTapKiemThu.Tests
+{
+    [TestClass]
+    public class Bai4_GeometryTests
+    {
+        [TestMethod]
+        public void TestArea()
+        {
+            Diem p1 = new Diem(0, 4);
+            Diem p2 = new Diem(3, 0);
+            HinhChuNhat hcn = new HinhChuNhat(p1, p2);
+            Assert.AreEqual(12, hcn.TinhDienTich());
+        }
+        [TestMethod]
+        public void TestIntersect_True()
+        {
+            HinhChuNhat hcn1 = new HinhChuNhat(new Diem(0, 4), new Diem(4, 0));
+            HinhChuNhat hcn2 = new HinhChuNhat(new Diem(2, 2), new Diem(6, -2));
+            Assert.IsTrue(hcn1.IsIntersect(hcn2));
+        }
+        [TestMethod]
+        public void TestIntersect_False()
+        {
+            HinhChuNhat hcn1 = new HinhChuNhat(new Diem(0, 10), new Diem(10, 0));
+            HinhChuNhat hcn2 = new HinhChuNhat(new Diem(20, 10), new Diem(30, 0));
+            Assert.IsFalse(hcn1.IsIntersect(hcn2)); 
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>using Microsoft.VisualStudio.TestTools.UnitTesting;
+using System.Collections.Generic;
+using BaiTapKiemThu;
+namespace BaiTapKiemThu.Tests
+{
+    [TestClass]
+    public class Bai5_ScholarshipTests
+    {
+        [TestMethod]
+        public void TestScholarship_Dat()
+        {
+            List&lt;double&gt; diem = new List&lt;double&gt; { 8.0, 8.0, 8.0 };
+            HocVien hv = new HocVien("Nguyen Van A", diem);
+            Assert.IsTrue(hv.XetHocBong());
+        }
+        [TestMethod]
+        public void TestScholarship_KhongDat_DTBThap()
+        {
+            List&lt;double&gt; diem = new List&lt;double&gt; { 7.0, 7.0, 7.0 };
+            HocVien hv = new HocVien("Nguyen Van B", diem);
+            Assert.IsFalse(hv.XetHocBong());
+        }
+        [TestMethod]
+        public void TestScholarship_KhongDat_CoMonDuoi5()
+        {
+            List&lt;double&gt; diem = new List&lt;double&gt; { 10.0, 10.0, 4.0 }; 
+            HocVien hv = new HocVien("Nguyen Van C", diem);
+            Assert.IsFalse(hv.XetHocBong());
+        }
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1049,26 +1229,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1101,14 +1266,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1122,24 +1281,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1151,10 +1298,34 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,6 +1342,251 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4148</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FB81AB-CD27-4112-9144-52B68F8CC0B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105070" y="209476"/>
+          <a:ext cx="6054792" cy="2675237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9649</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45483</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0F6998-C782-4035-88DA-480EDF7C27EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6087506" y="250536"/>
+          <a:ext cx="6113691" cy="2672938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590803</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A0C212-88EF-45FA-A799-17F55B801C34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6077857" y="208642"/>
+          <a:ext cx="6060875" cy="2884715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>14729</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84216FB2-1CB5-4FD0-AADA-1FD61E396260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086929" y="181428"/>
+          <a:ext cx="6083514" cy="2431143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1198</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73B0B72-5DA0-43CB-A2F7-1E31E9D6F3F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6119092" y="207819"/>
+          <a:ext cx="6120288" cy="2424545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1495,11 +1911,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1525,10 +1941,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -1562,10 +1978,10 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="3">
         <v>1</v>
       </c>
@@ -1577,10 +1993,10 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -1602,10 +2018,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3">
         <v>0</v>
       </c>
@@ -1617,10 +2033,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="3">
         <v>50</v>
       </c>
@@ -1632,10 +2048,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="3">
         <v>500</v>
       </c>
@@ -1647,10 +2063,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="3">
         <v>1500</v>
       </c>
@@ -1678,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97007408-96BC-4C5B-B1F2-EF54AD8318F9}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
@@ -1692,7 +2108,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1701,11 +2117,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1731,10 +2147,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -1768,10 +2184,10 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="13">
         <v>1</v>
       </c>
@@ -1783,10 +2199,10 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -1808,10 +2224,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="27"/>
       <c r="D14" t="s">
         <v>137</v>
       </c>
@@ -1823,10 +2239,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="27"/>
       <c r="D15" t="s">
         <v>140</v>
       </c>
@@ -1838,10 +2254,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="27"/>
       <c r="D16" t="s">
         <v>142</v>
       </c>
@@ -1853,10 +2269,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="27"/>
       <c r="D17" t="s">
         <v>144</v>
       </c>
@@ -1868,10 +2284,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="27"/>
       <c r="D18" t="s">
         <v>146</v>
       </c>
@@ -1883,10 +2299,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="27"/>
       <c r="D19" t="s">
         <v>149</v>
       </c>
@@ -1898,10 +2314,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="27"/>
       <c r="D20" t="s">
         <v>151</v>
       </c>
@@ -1913,10 +2329,10 @@
       <c r="A21" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="27"/>
       <c r="D21" t="s">
         <v>154</v>
       </c>
@@ -1928,10 +2344,10 @@
       <c r="A22" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="27"/>
       <c r="D22" t="s">
         <v>156</v>
       </c>
@@ -1941,6 +2357,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -1948,12 +2370,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1969,561 +2385,561 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="16" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="16"/>
-    <col min="4" max="4" width="12.1796875" style="16" customWidth="1"/>
-    <col min="5" max="9" width="8.7265625" style="16"/>
-    <col min="10" max="10" width="14.1796875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="20.08984375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="39.08984375" style="16" customWidth="1"/>
-    <col min="14" max="14" width="29.453125" style="16" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="20.453125" style="15" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="15"/>
+    <col min="4" max="4" width="12.1796875" style="15" customWidth="1"/>
+    <col min="5" max="9" width="8.7265625" style="15"/>
+    <col min="10" max="10" width="14.1796875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.08984375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="39.08984375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="29.453125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="16">
         <v>46035</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="F8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="H9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="I10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="17">
         <v>1</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="31">
+      <c r="L10" s="28"/>
+      <c r="M10" s="25">
         <v>0.15</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="15" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="27" t="s">
+      <c r="N13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="28"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="29" t="s">
+      <c r="L14" s="29"/>
+      <c r="M14" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="N14" s="29" t="s">
+      <c r="N14" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="O14" s="28"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="29" t="s">
+      <c r="L15" s="29"/>
+      <c r="M15" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="N15" s="29" t="s">
+      <c r="N15" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="O15" s="28"/>
+      <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="29" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="29" t="s">
+      <c r="L16" s="29"/>
+      <c r="M16" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="N16" s="29" t="s">
+      <c r="N16" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="O16" s="28"/>
+      <c r="O16" s="23"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="29" t="s">
+      <c r="L17" s="29"/>
+      <c r="M17" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="O17" s="28"/>
+      <c r="O17" s="23"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J18" s="29" t="s">
+      <c r="C18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="29" t="s">
+      <c r="L18" s="29"/>
+      <c r="M18" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="N18" s="29" t="s">
+      <c r="N18" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="O18" s="28"/>
+      <c r="O18" s="23"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" s="29" t="s">
+      <c r="D19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="29" t="s">
+      <c r="L19" s="29"/>
+      <c r="M19" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="24">
         <v>0</v>
       </c>
-      <c r="O19" s="28"/>
+      <c r="O19" s="23"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="B20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J20" s="29" t="s">
+      <c r="E20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="29" t="s">
+      <c r="L20" s="29"/>
+      <c r="M20" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="N20" s="29" t="s">
+      <c r="N20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="28"/>
+      <c r="O20" s="23"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="29" t="s">
+      <c r="L21" s="29"/>
+      <c r="M21" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="N21" s="29" t="s">
+      <c r="N21" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="O21" s="28"/>
+      <c r="O21" s="23"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="A16:I16"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2533,554 +2949,559 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E991154A-FD5A-4322-983F-66BCA9A8D4CA}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="16" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="16"/>
-    <col min="4" max="4" width="11.36328125" style="16" customWidth="1"/>
-    <col min="5" max="9" width="8.7265625" style="16"/>
-    <col min="10" max="10" width="14.1796875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="35.7265625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="39.08984375" style="16" customWidth="1"/>
-    <col min="14" max="14" width="29.453125" style="16" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="20.453125" style="15" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="15"/>
+    <col min="4" max="4" width="11.36328125" style="15" customWidth="1"/>
+    <col min="5" max="9" width="8.7265625" style="15"/>
+    <col min="10" max="10" width="14.1796875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="35.7265625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="39.08984375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="29.453125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="16">
         <v>46035</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="F8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="H9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="I10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="17">
         <v>1</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="31" t="s">
+      <c r="L10" s="28"/>
+      <c r="M10" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="15" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="27" t="s">
+      <c r="N13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="28"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="32" t="s">
+      <c r="L14" s="31"/>
+      <c r="M14" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="O14" s="28"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="32" t="s">
+      <c r="L15" s="31"/>
+      <c r="M15" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="O15" s="28"/>
+      <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="32" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="32" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="O16" s="28"/>
+      <c r="O16" s="23"/>
     </row>
     <row r="17" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="L17" s="33"/>
-      <c r="M17" s="32" t="s">
+      <c r="L17" s="31"/>
+      <c r="M17" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="O17" s="28"/>
+      <c r="O17" s="23"/>
     </row>
     <row r="18" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J18" s="32" t="s">
+      <c r="C18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="32" t="s">
+      <c r="L18" s="31"/>
+      <c r="M18" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="N18" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="O18" s="28"/>
+      <c r="O18" s="23"/>
     </row>
     <row r="19" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" s="32" t="s">
+      <c r="D19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="32" t="s">
+      <c r="L19" s="31"/>
+      <c r="M19" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="26">
         <v>0</v>
       </c>
-      <c r="O19" s="28"/>
+      <c r="O19" s="23"/>
     </row>
     <row r="20" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="B20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J20" s="32" t="s">
+      <c r="E20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="L20" s="33"/>
-      <c r="M20" s="32" t="s">
+      <c r="L20" s="31"/>
+      <c r="M20" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="N20" s="32" t="s">
+      <c r="N20" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="28"/>
+      <c r="O20" s="23"/>
     </row>
     <row r="21" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="L21" s="33"/>
-      <c r="M21" s="32" t="s">
+      <c r="L21" s="31"/>
+      <c r="M21" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="N21" s="32" t="s">
+      <c r="N21" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="O21" s="28"/>
+      <c r="O21" s="23"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
@@ -3089,11 +3510,6 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3109,578 +3525,583 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="16" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="16"/>
-    <col min="4" max="4" width="10.54296875" style="16" customWidth="1"/>
-    <col min="5" max="9" width="8.7265625" style="16"/>
-    <col min="10" max="10" width="14.1796875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="19.26953125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="39.08984375" style="16" customWidth="1"/>
-    <col min="14" max="14" width="29.453125" style="16" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="20.453125" style="15" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="15"/>
+    <col min="4" max="4" width="10.54296875" style="15" customWidth="1"/>
+    <col min="5" max="9" width="8.7265625" style="15"/>
+    <col min="10" max="10" width="14.1796875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="19.26953125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="39.08984375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="29.453125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="16">
         <v>46035</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="F8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="H9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="I10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="17">
         <v>1</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="32" t="s">
+      <c r="L10" s="28"/>
+      <c r="M10" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="25">
         <v>0.15</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="27" t="s">
+      <c r="N13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="28"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="32" t="s">
+      <c r="L14" s="31"/>
+      <c r="M14" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="O14" s="28"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="32" t="s">
+      <c r="L15" s="31"/>
+      <c r="M15" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="O15" s="28"/>
+      <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="32" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="32" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="O16" s="28"/>
+      <c r="O16" s="23"/>
     </row>
     <row r="17" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="L17" s="33"/>
-      <c r="M17" s="32" t="s">
+      <c r="L17" s="31"/>
+      <c r="M17" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="O17" s="28"/>
+      <c r="O17" s="23"/>
     </row>
     <row r="18" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J18" s="32" t="s">
+      <c r="D18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="32" t="s">
+      <c r="L18" s="31"/>
+      <c r="M18" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="N18" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="O18" s="28"/>
+      <c r="O18" s="23"/>
     </row>
     <row r="19" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" s="32" t="s">
+      <c r="E19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="32" t="s">
+      <c r="L19" s="31"/>
+      <c r="M19" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="O19" s="28"/>
+      <c r="O19" s="23"/>
     </row>
     <row r="20" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J20" s="32" t="s">
+      <c r="F20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="L20" s="33"/>
-      <c r="M20" s="32" t="s">
+      <c r="L20" s="31"/>
+      <c r="M20" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="N20" s="32" t="s">
+      <c r="N20" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="28"/>
+      <c r="O20" s="23"/>
     </row>
     <row r="21" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="L21" s="33"/>
-      <c r="M21" s="32" t="s">
+      <c r="L21" s="31"/>
+      <c r="M21" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="N21" s="32" t="s">
+      <c r="N21" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="O21" s="28"/>
+      <c r="O21" s="23"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
@@ -3689,11 +4110,6 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3703,797 +4119,3369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466BCE8-4207-4F8F-9724-4FDD42CD12E0}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="6.6328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="16"/>
-    <col min="4" max="4" width="8.54296875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="6.36328125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="5.90625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="5.81640625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="6.54296875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="7.36328125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="6.7265625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="6.90625" style="16" customWidth="1"/>
-    <col min="15" max="17" width="8.7265625" style="16"/>
-    <col min="18" max="18" width="14.26953125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="11.26953125" style="16" customWidth="1"/>
-    <col min="20" max="20" width="32.7265625" style="16" customWidth="1"/>
-    <col min="21" max="21" width="34.54296875" style="16" customWidth="1"/>
-    <col min="22" max="22" width="27.54296875" style="16" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="26.1796875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="15"/>
+    <col min="4" max="4" width="8.54296875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="5.90625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="6.54296875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="6.7265625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="6.90625" style="15" customWidth="1"/>
+    <col min="15" max="17" width="8.7265625" style="15"/>
+    <col min="18" max="18" width="14.26953125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="11.26953125" style="15" customWidth="1"/>
+    <col min="20" max="20" width="32.7265625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="34.54296875" style="15" customWidth="1"/>
+    <col min="22" max="22" width="27.54296875" style="15" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="32"/>
+      <c r="F1" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="19"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="R2" s="15" t="s">
+      <c r="D2" s="28"/>
+      <c r="R2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="R5" s="15" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="R5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="28"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="16">
         <v>46035</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="W7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q8" s="16" t="s">
+      <c r="J8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="F9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="S9" s="15" t="s">
+      <c r="N9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="23" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="D10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="H10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="L10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="N10" s="16" t="s">
+      <c r="L10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="P10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="R10" s="19">
+      <c r="P10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="R10" s="17">
         <v>1</v>
       </c>
-      <c r="S10" s="17" t="s">
+      <c r="S10" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="32" t="s">
+      <c r="T10" s="28"/>
+      <c r="U10" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="V10" s="31"/>
+      <c r="V10" s="25"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="K11" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="N11" s="16" t="s">
+      <c r="M11" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="P11" s="16" t="s">
+      <c r="O11" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="Q11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
+      <c r="Q11" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="21" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="R13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27" t="s">
+      <c r="T13" s="22"/>
+      <c r="U13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="V13" s="27" t="s">
+      <c r="V13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="W13" s="28"/>
+      <c r="W13" s="23"/>
     </row>
     <row r="14" spans="1:23" ht="14.5" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="R14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="33" t="s">
+      <c r="S14" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="T14" s="33"/>
-      <c r="U14" s="32" t="s">
+      <c r="T14" s="31"/>
+      <c r="U14" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="V14" s="32" t="s">
+      <c r="V14" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="W14" s="28"/>
+      <c r="W14" s="23"/>
     </row>
     <row r="15" spans="1:23" ht="14.5" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="P15" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="Q15" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="R15" s="32" t="s">
+      <c r="R15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="33" t="s">
+      <c r="S15" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="T15" s="33"/>
-      <c r="U15" s="32" t="s">
+      <c r="T15" s="31"/>
+      <c r="U15" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="V15" s="32" t="s">
+      <c r="V15" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="W15" s="28"/>
+      <c r="W15" s="23"/>
     </row>
     <row r="16" spans="1:23" ht="14.5" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="R16" s="32" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="R16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S16" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="T16" s="33"/>
-      <c r="U16" s="32" t="s">
+      <c r="T16" s="31"/>
+      <c r="U16" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="V16" s="32" t="s">
+      <c r="V16" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="W16" s="28"/>
+      <c r="W16" s="23"/>
     </row>
     <row r="17" spans="1:23" ht="14.5" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="R17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="33" t="s">
+      <c r="S17" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="T17" s="33"/>
-      <c r="U17" s="32" t="s">
+      <c r="T17" s="31"/>
+      <c r="U17" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="V17" s="32" t="s">
+      <c r="V17" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="W17" s="28"/>
+      <c r="W17" s="23"/>
     </row>
     <row r="18" spans="1:23" ht="14.5" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="R18" s="32" t="s">
+      <c r="C18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="R18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="S18" s="33" t="s">
+      <c r="S18" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="T18" s="33"/>
-      <c r="U18" s="32" t="s">
+      <c r="T18" s="31"/>
+      <c r="U18" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="V18" s="32" t="s">
+      <c r="V18" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="W18" s="28"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" spans="1:23" ht="14.5" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="R19" s="32" t="s">
+      <c r="E19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="R19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="33" t="s">
+      <c r="S19" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="T19" s="33"/>
-      <c r="U19" s="32" t="s">
+      <c r="T19" s="31"/>
+      <c r="U19" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="V19" s="32" t="s">
+      <c r="V19" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="W19" s="28"/>
+      <c r="W19" s="23"/>
     </row>
     <row r="20" spans="1:23" ht="14.5" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="B20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="R20" s="32" t="s">
+      <c r="E20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="R20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="33" t="s">
+      <c r="S20" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="T20" s="33"/>
-      <c r="U20" s="32" t="s">
+      <c r="T20" s="31"/>
+      <c r="U20" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="V20" s="32" t="s">
+      <c r="V20" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="W20" s="28"/>
+      <c r="W20" s="23"/>
     </row>
     <row r="21" spans="1:23" ht="14.5" customHeight="1">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="B21" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="R21" s="32" t="s">
+      <c r="F21" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="R21" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="S21" s="33" t="s">
+      <c r="S21" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="32" t="s">
+      <c r="T21" s="31"/>
+      <c r="U21" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="V21" s="32" t="s">
+      <c r="V21" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="W21" s="28"/>
+      <c r="W21" s="23"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="21" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S10:T10"/>
     <mergeCell ref="S21:T21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25435F72-297E-4492-9DFB-E5E17D94D7C7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441BF1E4-5372-48FB-A933-D97B8BFA02C2}">
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:J40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB69F8E-B0B3-4DEC-AFAC-80CF50F3E539}">
+  <dimension ref="A1:T40"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="A2:J40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC1EB8B-471A-476A-A851-949F63937403}">
+  <dimension ref="A1:T40"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="A2:J40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EB84A5-786B-4459-AB0E-629B73DB3918}">
+  <dimension ref="A1:T40"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="A2:J40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256DB035-ADE6-4C3D-BA3B-089726BF5F0D}">
+  <dimension ref="A1:T40"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="A2:J40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4524,11 +7512,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -4554,10 +7542,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -4591,10 +7579,10 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="3">
         <v>1</v>
       </c>
@@ -4606,10 +7594,10 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -4631,10 +7619,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3">
         <v>12345678</v>
       </c>
@@ -4646,10 +7634,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="7">
         <v>12345</v>
       </c>
@@ -4661,10 +7649,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="7">
         <v>12345678901</v>
       </c>
@@ -4676,10 +7664,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="27"/>
       <c r="D17" t="s">
         <v>35</v>
       </c>
@@ -4697,6 +7685,520 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12A27EE-9210-4BA2-A124-DDFC8EBAD849}">
+  <dimension ref="A1:T40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="A2:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4729,11 +8231,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -4759,10 +8261,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -4796,10 +8298,10 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="3">
         <v>1</v>
       </c>
@@ -4811,10 +8313,10 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -4836,10 +8338,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -4851,10 +8353,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="10">
         <v>0.41666666666666669</v>
       </c>
@@ -4866,10 +8368,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="10">
         <v>0.70833333333333337</v>
       </c>
@@ -4881,10 +8383,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="9">
         <v>0.83333333333333337</v>
       </c>
@@ -4896,10 +8398,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="11" t="s">
         <v>50</v>
       </c>
@@ -4950,11 +8452,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -4980,10 +8482,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -5017,10 +8519,10 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="3">
         <v>1</v>
       </c>
@@ -5032,10 +8534,10 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -5057,10 +8559,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3">
         <v>30</v>
       </c>
@@ -5072,10 +8574,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="12">
         <v>50</v>
       </c>
@@ -5087,10 +8589,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="12">
         <v>120</v>
       </c>
@@ -5102,10 +8604,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="3">
         <v>160</v>
       </c>
@@ -5117,10 +8619,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="3">
         <v>210</v>
       </c>
@@ -5132,10 +8634,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="3">
         <v>-19</v>
       </c>
@@ -5147,10 +8649,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="27"/>
       <c r="D20" t="s">
         <v>68</v>
       </c>
@@ -5160,17 +8662,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5180,7 +8682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF59C50-0BA2-4E55-BF0C-E4784E35852D}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -5203,11 +8705,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -5233,10 +8735,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -5270,10 +8772,10 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="13">
         <v>1</v>
       </c>
@@ -5285,10 +8787,10 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -5310,10 +8812,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="13">
         <v>0</v>
       </c>
@@ -5325,10 +8827,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="12">
         <v>-1</v>
       </c>
@@ -5340,10 +8842,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="12">
         <v>1</v>
       </c>
@@ -5355,10 +8857,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13">
         <v>50</v>
       </c>
@@ -5370,10 +8872,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="13">
         <v>99</v>
       </c>
@@ -5385,10 +8887,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="13">
         <v>100</v>
       </c>
@@ -5400,10 +8902,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="13">
         <v>101</v>
       </c>
@@ -5413,17 +8915,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5456,11 +8958,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -5486,10 +8988,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -5523,10 +9025,10 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="13">
         <v>1</v>
       </c>
@@ -5538,10 +9040,10 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -5563,10 +9065,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="13">
         <v>0</v>
       </c>
@@ -5578,10 +9080,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="12">
         <v>1</v>
       </c>
@@ -5593,10 +9095,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="12">
         <v>2</v>
       </c>
@@ -5608,10 +9110,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13">
         <v>500</v>
       </c>
@@ -5623,10 +9125,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="13">
         <v>999</v>
       </c>
@@ -5638,10 +9140,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="13">
         <v>1000</v>
       </c>
@@ -5653,10 +9155,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="13">
         <v>1001</v>
       </c>
@@ -5666,17 +9168,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5709,11 +9211,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -5739,10 +9241,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -5776,10 +9278,10 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="13">
         <v>1</v>
       </c>
@@ -5791,10 +9293,10 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -5816,10 +9318,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="13"/>
       <c r="E14" t="s">
         <v>27</v>
@@ -5829,10 +9331,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="12" t="s">
         <v>108</v>
       </c>
@@ -5844,10 +9346,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
         <v>111</v>
       </c>
@@ -5859,10 +9361,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13" t="s">
         <v>113</v>
       </c>
@@ -5874,10 +9376,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="27"/>
       <c r="D18" t="s">
         <v>115</v>
       </c>
@@ -5889,10 +9391,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="27"/>
       <c r="D19" t="s">
         <v>117</v>
       </c>
@@ -5904,10 +9406,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="27"/>
       <c r="D20" t="s">
         <v>119</v>
       </c>
@@ -5917,17 +9419,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5960,11 +9462,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -5990,10 +9492,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -6027,10 +9529,10 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="13">
         <v>1</v>
       </c>
@@ -6042,10 +9544,10 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -6067,10 +9569,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="13">
         <v>0</v>
       </c>
@@ -6082,10 +9584,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="12">
         <v>1</v>
       </c>
@@ -6097,10 +9599,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="12">
         <v>2</v>
       </c>
@@ -6112,10 +9614,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13">
         <v>6</v>
       </c>
@@ -6127,10 +9629,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="13">
         <v>11</v>
       </c>
@@ -6142,10 +9644,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="13">
         <v>12</v>
       </c>
@@ -6157,10 +9659,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="13">
         <v>13</v>
       </c>
@@ -6170,17 +9672,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6190,293 +9692,293 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8626D29F-D828-4DE8-9463-6B061D3FB757}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="28.81640625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="17.26953125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>46028</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>1</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19">
+      <c r="C10" s="28"/>
+      <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>2</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="20" t="s">
+      <c r="C11" s="28"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
-      <c r="A14" s="16" t="s">
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="22">
+      <c r="C14" s="28"/>
+      <c r="D14" s="20">
         <v>-1</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="22">
+      <c r="C15" s="28"/>
+      <c r="D15" s="20">
         <v>0</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="22">
+      <c r="C16" s="28"/>
+      <c r="D16" s="20">
         <v>5</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="22">
+      <c r="C17" s="28"/>
+      <c r="D17" s="20">
         <v>6</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="22">
+      <c r="C18" s="28"/>
+      <c r="D18" s="20">
         <v>19</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="22">
+      <c r="C19" s="28"/>
+      <c r="D19" s="20">
         <v>20</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="22">
+      <c r="C20" s="28"/>
+      <c r="D20" s="20">
         <v>60</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="20">
         <v>61</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="20">
         <v>120</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="20">
         <v>121</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="34" t="s">
         <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BT_KTPM.xlsx
+++ b/BT_KTPM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tl_hoc\Software_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF307318-6E65-4A2C-A481-D37F62B55631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2171C5D-D9CD-4262-94CE-88A17C793849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="778" firstSheet="10" activeTab="19" xr2:uid="{7047DD55-1D6A-471A-8DD9-043E6368546C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="778" firstSheet="12" activeTab="13" xr2:uid="{7047DD55-1D6A-471A-8DD9-043E6368546C}"/>
   </bookViews>
   <sheets>
     <sheet name="Buổi 2 b1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
     <sheet name="Buổi 3 b2" sheetId="13" r:id="rId12"/>
     <sheet name="Buổi 3 b3" sheetId="14" r:id="rId13"/>
     <sheet name="Buổi 3 b4" sheetId="15" r:id="rId14"/>
-    <sheet name="Buổi 4 b1" sheetId="33" r:id="rId15"/>
-    <sheet name="Buổi 4 b2" sheetId="25" r:id="rId16"/>
-    <sheet name="Buổi 4 b3" sheetId="26" r:id="rId17"/>
-    <sheet name="Buổi 4 b4" sheetId="27" r:id="rId18"/>
-    <sheet name="Buổi 4 b5" sheetId="28" r:id="rId19"/>
-    <sheet name="Buổi 4 bt_them" sheetId="29" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="309">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -983,181 +977,6 @@
   </si>
   <si>
     <t>Số rule = 2 ^ 4 = 16</t>
-  </si>
-  <si>
-    <t>using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.Threading.Tasks;
-using Microsoft.VisualStudio.TestTools.UnitTesting;
-using BaiTapKiemThu;
-namespace BaiTapKiemThu.Tests
-{
-    [TestClass]
-    public class Bai1_PowerTests
-    {
-        public void TestPower_N_Equals_Zero()
-        {
-            double result = Bai1_Power.Power(10, 0);
-            Assert.AreEqual(1.0, result);
-        }
-        public void TestPower_N_Positive()
-        {
-            double result = Bai1_Power.Power(2, 3);
-            Assert.AreEqual(8.0, result);
-        }
-        public void TestPower_N_Negative()
-        {
-            double result = Bai1_Power.Power(2, -1);
-            Assert.AreEqual(0.5, result);
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>Kiểm thử</t>
-  </si>
-  <si>
-    <t>Kết quả</t>
-  </si>
-  <si>
-    <t>using Microsoft.VisualStudio.TestTools.UnitTesting;
-using System;
-using System.Collections.Generic;
-using BaiTapKiemThu;
-namespace BaiTapKiemThu.Tests
-{
-    [TestClass]
-    public class Bai2_PolynomialTests
-    {
-        [TestMethod]
-        public void TestCal_CorrectCalculation()
-        {
-            List&lt;int&gt; heSo = new List&lt;int&gt; { 1, 2, 3 };
-            Polynomial poly = new Polynomial(2, heSo);
-            int result = poly.Cal(2);
-            Assert.AreEqual(17, result);
-        }
-        [TestMethod]
-        [ExpectedException(typeof(ArgumentException))] 
-        public void TestInit_InvalidCount()
-        {
-            List&lt;int&gt; heSo = new List&lt;int&gt; { 1, 2 };
-            Polynomial poly = new Polynomial(2, heSo);
-        }
-        [TestMethod]
-        [ExpectedException(typeof(ArgumentException))]
-        public void TestInit_NegativeN()
-        {
-            List&lt;int&gt; heSo = new List&lt;int&gt; { 1 };
-            Polynomial poly = new Polynomial(-1, heSo);
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>using Microsoft.VisualStudio.TestTools.UnitTesting;
-using System;
-using BaiTapKiemThu;
-namespace BaiTapKiemThu.Tests
-{
-    [TestClass]
-    public class Bai3_RadixTests
-    {
-        [TestMethod]
-        public void TestConvert_ToBinary()
-        {
-            Radix r = new Radix(10);
-            Assert.AreEqual("1010", r.ConvertDecimalToAnother(2));
-        }
-        [TestMethod]
-        public void TestConvert_ToHex()
-        {
-            Radix r = new Radix(255);
-            Assert.AreEqual("FF", r.ConvertDecimalToAnother(16));
-        }
-        [TestMethod]
-        [ExpectedException(typeof(ArgumentException))]
-        public void TestInit_NegativeNumber()
-        {
-            Radix r = new Radix(-5);
-        }
-        [TestMethod]
-        [ExpectedException(typeof(ArgumentException))]
-        public void TestConvert_InvalidRadix()
-        {
-            Radix r = new Radix(10);
-            r.ConvertDecimalToAnother(18); 
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>using Microsoft.VisualStudio.TestTools.UnitTesting;
-using BaiTapKiemThu;
-namespace BaiTapKiemThu.Tests
-{
-    [TestClass]
-    public class Bai4_GeometryTests
-    {
-        [TestMethod]
-        public void TestArea()
-        {
-            Diem p1 = new Diem(0, 4);
-            Diem p2 = new Diem(3, 0);
-            HinhChuNhat hcn = new HinhChuNhat(p1, p2);
-            Assert.AreEqual(12, hcn.TinhDienTich());
-        }
-        [TestMethod]
-        public void TestIntersect_True()
-        {
-            HinhChuNhat hcn1 = new HinhChuNhat(new Diem(0, 4), new Diem(4, 0));
-            HinhChuNhat hcn2 = new HinhChuNhat(new Diem(2, 2), new Diem(6, -2));
-            Assert.IsTrue(hcn1.IsIntersect(hcn2));
-        }
-        [TestMethod]
-        public void TestIntersect_False()
-        {
-            HinhChuNhat hcn1 = new HinhChuNhat(new Diem(0, 10), new Diem(10, 0));
-            HinhChuNhat hcn2 = new HinhChuNhat(new Diem(20, 10), new Diem(30, 0));
-            Assert.IsFalse(hcn1.IsIntersect(hcn2)); 
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>using Microsoft.VisualStudio.TestTools.UnitTesting;
-using System.Collections.Generic;
-using BaiTapKiemThu;
-namespace BaiTapKiemThu.Tests
-{
-    [TestClass]
-    public class Bai5_ScholarshipTests
-    {
-        [TestMethod]
-        public void TestScholarship_Dat()
-        {
-            List&lt;double&gt; diem = new List&lt;double&gt; { 8.0, 8.0, 8.0 };
-            HocVien hv = new HocVien("Nguyen Van A", diem);
-            Assert.IsTrue(hv.XetHocBong());
-        }
-        [TestMethod]
-        public void TestScholarship_KhongDat_DTBThap()
-        {
-            List&lt;double&gt; diem = new List&lt;double&gt; { 7.0, 7.0, 7.0 };
-            HocVien hv = new HocVien("Nguyen Van B", diem);
-            Assert.IsFalse(hv.XetHocBong());
-        }
-        [TestMethod]
-        public void TestScholarship_KhongDat_CoMonDuoi5()
-        {
-            List&lt;double&gt; diem = new List&lt;double&gt; { 10.0, 10.0, 4.0 }; 
-            HocVien hv = new HocVien("Nguyen Van C", diem);
-            Assert.IsFalse(hv.XetHocBong());
-        }
-    }
-}</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1297,6 +1116,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1315,18 +1140,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,251 +1155,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28047</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>4148</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>163284</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FB81AB-CD27-4112-9144-52B68F8CC0B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6105070" y="209476"/>
-          <a:ext cx="6054792" cy="2675237"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9649</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>69107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>45483</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>20617</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0F6998-C782-4035-88DA-480EDF7C27EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6087506" y="250536"/>
-          <a:ext cx="6113691" cy="2672938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590803</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9071</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A0C212-88EF-45FA-A799-17F55B801C34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6077857" y="208642"/>
-          <a:ext cx="6060875" cy="2884715"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9072</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>14729</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>72571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84216FB2-1CB5-4FD0-AADA-1FD61E396260}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6086929" y="181428"/>
-          <a:ext cx="6083514" cy="2431143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23092</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1198</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73B0B72-5DA0-43CB-A2F7-1E31E9D6F3F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6119092" y="207819"/>
-          <a:ext cx="6120288" cy="2424545"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1911,11 +1479,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1941,10 +1509,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -1978,10 +1546,10 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="3">
         <v>1</v>
       </c>
@@ -1993,10 +1561,10 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -2018,10 +1586,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="3">
         <v>0</v>
       </c>
@@ -2033,10 +1601,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="3">
         <v>50</v>
       </c>
@@ -2048,10 +1616,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="3">
         <v>500</v>
       </c>
@@ -2063,10 +1631,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="3">
         <v>1500</v>
       </c>
@@ -2117,11 +1685,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2147,10 +1715,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -2184,10 +1752,10 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="13">
         <v>1</v>
       </c>
@@ -2199,10 +1767,10 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -2224,10 +1792,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" t="s">
         <v>137</v>
       </c>
@@ -2239,10 +1807,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" t="s">
         <v>140</v>
       </c>
@@ -2254,10 +1822,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" t="s">
         <v>142</v>
       </c>
@@ -2269,10 +1837,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" t="s">
         <v>144</v>
       </c>
@@ -2284,10 +1852,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="29"/>
       <c r="D18" t="s">
         <v>146</v>
       </c>
@@ -2299,10 +1867,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="29"/>
       <c r="D19" t="s">
         <v>149</v>
       </c>
@@ -2314,10 +1882,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="29"/>
       <c r="D20" t="s">
         <v>151</v>
       </c>
@@ -2329,10 +1897,10 @@
       <c r="A21" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="29"/>
       <c r="D21" t="s">
         <v>154</v>
       </c>
@@ -2344,10 +1912,10 @@
       <c r="A22" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="29"/>
       <c r="D22" t="s">
         <v>156</v>
       </c>
@@ -2357,12 +1925,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -2370,6 +1932,12 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2416,11 +1984,11 @@
       <c r="L1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -2471,10 +2039,10 @@
       <c r="J5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="L5" s="28"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="21" t="s">
@@ -2618,10 +2186,10 @@
       <c r="J10" s="17">
         <v>1</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="L10" s="28"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="25">
         <v>0.15</v>
       </c>
@@ -2634,8 +2202,8 @@
         <v>188</v>
       </c>
       <c r="J11" s="17"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="15" t="s">
@@ -2689,10 +2257,10 @@
       <c r="J14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="L14" s="29"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="24" t="s">
         <v>211</v>
       </c>
@@ -2711,10 +2279,10 @@
       <c r="J15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="L15" s="29"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="24" t="s">
         <v>212</v>
       </c>
@@ -2724,24 +2292,24 @@
       <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="L16" s="29"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="24" t="s">
         <v>213</v>
       </c>
@@ -2769,10 +2337,10 @@
       <c r="J17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="L17" s="29"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="24" t="s">
         <v>214</v>
       </c>
@@ -2800,10 +2368,10 @@
       <c r="J18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="L18" s="29"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="24" t="s">
         <v>207</v>
       </c>
@@ -2831,10 +2399,10 @@
       <c r="J19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="L19" s="29"/>
+      <c r="L19" s="31"/>
       <c r="M19" s="24" t="s">
         <v>218</v>
       </c>
@@ -2862,10 +2430,10 @@
       <c r="J20" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="L20" s="29"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="24" t="s">
         <v>219</v>
       </c>
@@ -2881,10 +2449,10 @@
       <c r="J21" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="L21" s="29"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="24" t="s">
         <v>218</v>
       </c>
@@ -2927,6 +2495,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A16:I16"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
@@ -2935,11 +2508,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2986,11 +2554,11 @@
       <c r="L1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -3041,10 +2609,10 @@
       <c r="J5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="L5" s="28"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="21" t="s">
@@ -3188,10 +2756,10 @@
       <c r="J10" s="17">
         <v>1</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L10" s="28"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="25" t="s">
         <v>247</v>
       </c>
@@ -3204,8 +2772,8 @@
         <v>188</v>
       </c>
       <c r="J11" s="17"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="15" t="s">
@@ -3259,10 +2827,10 @@
       <c r="J14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="L14" s="31"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="26" t="s">
         <v>237</v>
       </c>
@@ -3281,10 +2849,10 @@
       <c r="J15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="L15" s="31"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="26" t="s">
         <v>238</v>
       </c>
@@ -3294,24 +2862,24 @@
       <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="26" t="s">
         <v>239</v>
       </c>
@@ -3339,10 +2907,10 @@
       <c r="J17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="L17" s="31"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="26" t="s">
         <v>240</v>
       </c>
@@ -3370,10 +2938,10 @@
       <c r="J18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="L18" s="31"/>
+      <c r="L18" s="33"/>
       <c r="M18" s="26" t="s">
         <v>241</v>
       </c>
@@ -3401,10 +2969,10 @@
       <c r="J19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="L19" s="31"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="26" t="s">
         <v>234</v>
       </c>
@@ -3432,10 +3000,10 @@
       <c r="J20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="L20" s="31"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="26" t="s">
         <v>235</v>
       </c>
@@ -3451,10 +3019,10 @@
       <c r="J21" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="L21" s="31"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="26" t="s">
         <v>236</v>
       </c>
@@ -3497,11 +3065,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
@@ -3510,6 +3073,11 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3556,11 +3124,11 @@
       <c r="L1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -3611,10 +3179,10 @@
       <c r="J5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="L5" s="28"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="21" t="s">
@@ -3758,10 +3326,10 @@
       <c r="J10" s="17">
         <v>1</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="L10" s="28"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="26" t="s">
         <v>192</v>
       </c>
@@ -3774,8 +3342,8 @@
         <v>188</v>
       </c>
       <c r="J11" s="17"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="15" t="s">
@@ -3838,10 +3406,10 @@
       <c r="J14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="L14" s="31"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="26" t="s">
         <v>252</v>
       </c>
@@ -3860,10 +3428,10 @@
       <c r="J15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="L15" s="31"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="26" t="s">
         <v>254</v>
       </c>
@@ -3873,24 +3441,24 @@
       <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="26" t="s">
         <v>256</v>
       </c>
@@ -3921,10 +3489,10 @@
       <c r="J17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="L17" s="31"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="26" t="s">
         <v>258</v>
       </c>
@@ -3955,10 +3523,10 @@
       <c r="J18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="L18" s="31"/>
+      <c r="L18" s="33"/>
       <c r="M18" s="26" t="s">
         <v>260</v>
       </c>
@@ -3989,10 +3557,10 @@
       <c r="J19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="L19" s="31"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="26" t="s">
         <v>267</v>
       </c>
@@ -4023,10 +3591,10 @@
       <c r="J20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="L20" s="31"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="26" t="s">
         <v>261</v>
       </c>
@@ -4042,10 +3610,10 @@
       <c r="J21" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="L21" s="31"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="26" t="s">
         <v>262</v>
       </c>
@@ -4097,11 +3665,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
@@ -4110,6 +3673,11 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4119,7 +3687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466BCE8-4207-4F8F-9724-4FDD42CD12E0}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -4152,10 +3720,10 @@
       <c r="A1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="34"/>
       <c r="F1" s="21" t="s">
         <v>308</v>
       </c>
@@ -4168,20 +3736,20 @@
       <c r="T1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="V1" s="28"/>
+      <c r="V1" s="30"/>
       <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="30"/>
       <c r="R2" s="14" t="s">
         <v>1</v>
       </c>
@@ -4205,33 +3773,33 @@
       <c r="A3" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="R5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="28" t="s">
+      <c r="S5" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="T5" s="28"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="21" t="s">
@@ -4471,10 +4039,10 @@
       <c r="R10" s="17">
         <v>1</v>
       </c>
-      <c r="S10" s="28" t="s">
+      <c r="S10" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="T10" s="28"/>
+      <c r="T10" s="30"/>
       <c r="U10" s="26" t="s">
         <v>273</v>
       </c>
@@ -4603,10 +4171,10 @@
       <c r="R14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="31" t="s">
+      <c r="S14" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="T14" s="31"/>
+      <c r="T14" s="33"/>
       <c r="U14" s="26" t="s">
         <v>303</v>
       </c>
@@ -4634,10 +4202,10 @@
       <c r="R15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="31" t="s">
+      <c r="S15" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="T15" s="31"/>
+      <c r="T15" s="33"/>
       <c r="U15" s="26" t="s">
         <v>304</v>
       </c>
@@ -4647,24 +4215,24 @@
       <c r="W15" s="23"/>
     </row>
     <row r="16" spans="1:23" ht="14.5" customHeight="1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="R16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="31" t="s">
+      <c r="S16" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="T16" s="31"/>
+      <c r="T16" s="33"/>
       <c r="U16" s="26" t="s">
         <v>302</v>
       </c>
@@ -4695,10 +4263,10 @@
       <c r="R17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="31" t="s">
+      <c r="S17" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="T17" s="31"/>
+      <c r="T17" s="33"/>
       <c r="U17" s="26" t="s">
         <v>298</v>
       </c>
@@ -4729,10 +4297,10 @@
       <c r="R18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="S18" s="31" t="s">
+      <c r="S18" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="T18" s="31"/>
+      <c r="T18" s="33"/>
       <c r="U18" s="26" t="s">
         <v>305</v>
       </c>
@@ -4763,10 +4331,10 @@
       <c r="R19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="31" t="s">
+      <c r="S19" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="T19" s="31"/>
+      <c r="T19" s="33"/>
       <c r="U19" s="26" t="s">
         <v>299</v>
       </c>
@@ -4797,10 +4365,10 @@
       <c r="R20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="31" t="s">
+      <c r="S20" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="T20" s="31"/>
+      <c r="T20" s="33"/>
       <c r="U20" s="26" t="s">
         <v>300</v>
       </c>
@@ -4831,10 +4399,10 @@
       <c r="R21" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="S21" s="31" t="s">
+      <c r="S21" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="T21" s="31"/>
+      <c r="T21" s="33"/>
       <c r="U21" s="26" t="s">
         <v>301</v>
       </c>
@@ -4877,12 +4445,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S10:T10"/>
     <mergeCell ref="S21:T21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
@@ -4894,2594 +4456,14 @@
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441BF1E4-5372-48FB-A933-D97B8BFA02C2}">
-  <dimension ref="A1:T40"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:J40"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:T1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB69F8E-B0B3-4DEC-AFAC-80CF50F3E539}">
-  <dimension ref="A1:T40"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="A2:J40"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC1EB8B-471A-476A-A851-949F63937403}">
-  <dimension ref="A1:T40"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="A2:J40"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EB84A5-786B-4459-AB0E-629B73DB3918}">
-  <dimension ref="A1:T40"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="A2:J40"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256DB035-ADE6-4C3D-BA3B-089726BF5F0D}">
-  <dimension ref="A1:T40"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="A2:J40"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7512,11 +4494,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -7542,10 +4524,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -7579,10 +4561,10 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="3">
         <v>1</v>
       </c>
@@ -7594,10 +4576,10 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -7619,10 +4601,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="3">
         <v>12345678</v>
       </c>
@@ -7634,10 +4616,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="7">
         <v>12345</v>
       </c>
@@ -7649,10 +4631,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="7">
         <v>12345678901</v>
       </c>
@@ -7664,10 +4646,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" t="s">
         <v>35</v>
       </c>
@@ -7685,520 +4667,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12A27EE-9210-4BA2-A124-DDFC8EBAD849}">
-  <dimension ref="A1:T40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="A2:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8231,11 +4699,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -8261,10 +4729,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -8298,10 +4766,10 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="3">
         <v>1</v>
       </c>
@@ -8313,10 +4781,10 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -8338,10 +4806,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -8353,10 +4821,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="10">
         <v>0.41666666666666669</v>
       </c>
@@ -8368,10 +4836,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="10">
         <v>0.70833333333333337</v>
       </c>
@@ -8383,10 +4851,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="9">
         <v>0.83333333333333337</v>
       </c>
@@ -8398,10 +4866,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="11" t="s">
         <v>50</v>
       </c>
@@ -8452,11 +4920,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -8482,10 +4950,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -8519,10 +4987,10 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="3">
         <v>1</v>
       </c>
@@ -8534,10 +5002,10 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -8559,10 +5027,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="3">
         <v>30</v>
       </c>
@@ -8574,10 +5042,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="12">
         <v>50</v>
       </c>
@@ -8589,10 +5057,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="12">
         <v>120</v>
       </c>
@@ -8604,10 +5072,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="3">
         <v>160</v>
       </c>
@@ -8619,10 +5087,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="3">
         <v>210</v>
       </c>
@@ -8634,10 +5102,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="3">
         <v>-19</v>
       </c>
@@ -8649,10 +5117,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="29"/>
       <c r="D20" t="s">
         <v>68</v>
       </c>
@@ -8662,17 +5130,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8705,11 +5173,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -8735,10 +5203,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -8772,10 +5240,10 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="13">
         <v>1</v>
       </c>
@@ -8787,10 +5255,10 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -8812,10 +5280,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="13">
         <v>0</v>
       </c>
@@ -8827,10 +5295,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="12">
         <v>-1</v>
       </c>
@@ -8842,10 +5310,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="12">
         <v>1</v>
       </c>
@@ -8857,10 +5325,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="13">
         <v>50</v>
       </c>
@@ -8872,10 +5340,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="13">
         <v>99</v>
       </c>
@@ -8887,10 +5355,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="13">
         <v>100</v>
       </c>
@@ -8902,10 +5370,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="13">
         <v>101</v>
       </c>
@@ -8915,17 +5383,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8958,11 +5426,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -8988,10 +5456,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -9025,10 +5493,10 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="13">
         <v>1</v>
       </c>
@@ -9040,10 +5508,10 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -9065,10 +5533,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="13">
         <v>0</v>
       </c>
@@ -9080,10 +5548,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="12">
         <v>1</v>
       </c>
@@ -9095,10 +5563,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="12">
         <v>2</v>
       </c>
@@ -9110,10 +5578,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="13">
         <v>500</v>
       </c>
@@ -9125,10 +5593,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="13">
         <v>999</v>
       </c>
@@ -9140,10 +5608,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="13">
         <v>1000</v>
       </c>
@@ -9155,10 +5623,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="13">
         <v>1001</v>
       </c>
@@ -9168,17 +5636,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9211,11 +5679,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -9241,10 +5709,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -9278,10 +5746,10 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="13">
         <v>1</v>
       </c>
@@ -9293,10 +5761,10 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -9318,10 +5786,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="13"/>
       <c r="E14" t="s">
         <v>27</v>
@@ -9331,10 +5799,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="12" t="s">
         <v>108</v>
       </c>
@@ -9346,10 +5814,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="12" t="s">
         <v>111</v>
       </c>
@@ -9361,10 +5829,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="13" t="s">
         <v>113</v>
       </c>
@@ -9376,10 +5844,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="29"/>
       <c r="D18" t="s">
         <v>115</v>
       </c>
@@ -9391,10 +5859,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="29"/>
       <c r="D19" t="s">
         <v>117</v>
       </c>
@@ -9406,10 +5874,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="29"/>
       <c r="D20" t="s">
         <v>119</v>
       </c>
@@ -9419,17 +5887,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9462,11 +5930,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -9492,10 +5960,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -9529,10 +5997,10 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="13">
         <v>1</v>
       </c>
@@ -9544,10 +6012,10 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -9569,10 +6037,10 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="13">
         <v>0</v>
       </c>
@@ -9584,10 +6052,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="12">
         <v>1</v>
       </c>
@@ -9599,10 +6067,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="12">
         <v>2</v>
       </c>
@@ -9614,10 +6082,10 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="13">
         <v>6</v>
       </c>
@@ -9629,10 +6097,10 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="13">
         <v>11</v>
       </c>
@@ -9644,10 +6112,10 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="13">
         <v>12</v>
       </c>
@@ -9659,10 +6127,10 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="13">
         <v>13</v>
       </c>
@@ -9672,17 +6140,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9716,11 +6184,11 @@
       <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="14" t="s">
@@ -9746,10 +6214,10 @@
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
@@ -9783,10 +6251,10 @@
       <c r="A10" s="17">
         <v>1</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="17">
         <v>1</v>
       </c>
@@ -9798,10 +6266,10 @@
       <c r="A11" s="17">
         <v>2</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
@@ -9823,14 +6291,14 @@
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="20">
         <v>-1</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9838,14 +6306,14 @@
       <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="20">
         <v>0</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="27" t="s">
         <v>164</v>
       </c>
     </row>
@@ -9853,14 +6321,14 @@
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="20">
         <v>5</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="27" t="s">
         <v>164</v>
       </c>
     </row>
@@ -9868,14 +6336,14 @@
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="20">
         <v>6</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="27" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9883,14 +6351,14 @@
       <c r="A18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="20">
         <v>19</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="27" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9898,14 +6366,14 @@
       <c r="A19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="20">
         <v>20</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="27" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9913,14 +6381,14 @@
       <c r="A20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="20">
         <v>60</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="27" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9934,7 +6402,7 @@
       <c r="D21" s="20">
         <v>61</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="27" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9948,7 +6416,7 @@
       <c r="D22" s="20">
         <v>120</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="27" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9962,23 +6430,23 @@
       <c r="D23" s="20">
         <v>121</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="28" t="s">
         <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BT_KTPM.xlsx
+++ b/BT_KTPM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tl_hoc\Software_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2171C5D-D9CD-4262-94CE-88A17C793849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B47453-84DA-4C7D-B14D-8F3B85EC18DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="778" firstSheet="12" activeTab="13" xr2:uid="{7047DD55-1D6A-471A-8DD9-043E6368546C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="778" firstSheet="7" activeTab="16" xr2:uid="{7047DD55-1D6A-471A-8DD9-043E6368546C}"/>
   </bookViews>
   <sheets>
     <sheet name="Buổi 2 b1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Buổi 3 b2" sheetId="13" r:id="rId12"/>
     <sheet name="Buổi 3 b3" sheetId="14" r:id="rId13"/>
     <sheet name="Buổi 3 b4" sheetId="15" r:id="rId14"/>
+    <sheet name="Buổi 5 b1" sheetId="18" r:id="rId15"/>
+    <sheet name="Buổi 5 b2" sheetId="17" r:id="rId16"/>
+    <sheet name="Buổi 5 b3" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="367">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -977,13 +980,187 @@
   </si>
   <si>
     <t>Số rule = 2 ^ 4 = 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case </t>
+  </si>
+  <si>
+    <t>S #</t>
+  </si>
+  <si>
+    <t>Test Data Requestment</t>
+  </si>
+  <si>
+    <t>Test Condition</t>
+  </si>
+  <si>
+    <t>Step#</t>
+  </si>
+  <si>
+    <t>Step Details</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass/Fail/Not Execulted/Suspended</t>
+  </si>
+  <si>
+    <t>TC01_MathFunc</t>
+  </si>
+  <si>
+    <t>Kiểm thử chức năng tính giai thừa và tính tổng, kiểm tra biến đếm calls.</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Cài đặt JDK, Thư viện JUnit 4, Class MathFunc đã biên dịch</t>
+  </si>
+  <si>
+    <t>Số nguyên: 5, -1, 0, 1</t>
+  </si>
+  <si>
+    <t>Như mong đợi</t>
+  </si>
+  <si>
+    <t>Trả về 120. Calls = 1</t>
+  </si>
+  <si>
+    <t>Ngoại lệ xuất hiện (Exception thrown)</t>
+  </si>
+  <si>
+    <t>Trả về 2</t>
+  </si>
+  <si>
+    <t>Khởi tạo đối tượng MathFunc (thực hiện bởi @Before)</t>
+  </si>
+  <si>
+    <t>Biến calls = 0. Đối tượng được tạo thành công.</t>
+  </si>
+  <si>
+    <t>Gọi hàm math.factorial(5)</t>
+  </si>
+  <si>
+    <t>Gọi hàm math.factorial(0) và math.factorial(1)</t>
+  </si>
+  <si>
+    <t>Gọi hàm math.factorial(-1)</t>
+  </si>
+  <si>
+    <t>Gọi hàm math.plus(1, 1) (Trong hàm todo)</t>
+  </si>
+  <si>
+    <t>Hủy đối tượng (thực hiện bởi @After)</t>
+  </si>
+  <si>
+    <t>Trả về 1</t>
+  </si>
+  <si>
+    <t>Cả hai đều trả về 1</t>
+  </si>
+  <si>
+    <t>Ném ra ngoại lệ IllegalArgumentException</t>
+  </si>
+  <si>
+    <t>Đối tượng math được gán về null</t>
+  </si>
+  <si>
+    <t>TC02_TestSuite</t>
+  </si>
+  <si>
+    <t>Kiểm thử việc chạy đồng thời nhiều class test (SuiteTest1, SuiteTest2) thông qua JunitTest</t>
+  </si>
+  <si>
+    <t>Trả về 120. Biến calls tăng lên 1</t>
+  </si>
+  <si>
+    <t>Class SuiteTest1, SuiteTest2, JunitTest</t>
+  </si>
+  <si>
+    <t>Chuỗi "Fpoly", "Hi!", "Y"</t>
+  </si>
+  <si>
+    <t>Chạy file JunitTest.java (chứa @Suite)</t>
+  </si>
+  <si>
+    <t>Hệ thống tự động kích hoạt chạy SuiteTest1 và SuiteTest2</t>
+  </si>
+  <si>
+    <t>Chạy đủ 3 test cases</t>
+  </si>
+  <si>
+    <t>Kiểm tra testJUnitMessage (SuiteTest1)</t>
+  </si>
+  <si>
+    <t>Mong đợi lỗi toán học ArithmeticException (do chia cho 0 giả lập)</t>
+  </si>
+  <si>
+    <t>Bắt được lỗi ArithmeticException</t>
+  </si>
+  <si>
+    <t>Kiểm tra testJUnitHiMessage (SuiteTest1)</t>
+  </si>
+  <si>
+    <t>Chuỗi trả về phải là "Hi!Fpoly"</t>
+  </si>
+  <si>
+    <t>Chuỗi là "Hi!Fpoly"</t>
+  </si>
+  <si>
+    <t>Kiểm tra createAndSetName (SuiteTest2)</t>
+  </si>
+  <si>
+    <t>So sánh chuỗi Expected "Y" và Actual "Y"</t>
+  </si>
+  <si>
+    <t>Hai chuỗi khớp nhau</t>
+  </si>
+  <si>
+    <t>TC03_Annotations</t>
+  </si>
+  <si>
+    <t>Kiểm thử vòng đời và các tính năng của Annotation (@Before, @After, @Ignore, @Test timeout/expected)</t>
+  </si>
+  <si>
+    <t>Class JunitAnnotationsExample</t>
+  </si>
+  <si>
+    <t>ArrayList rỗng</t>
+  </si>
+  <si>
+    <t>Chạy m5 (Test ArrayList)</t>
+  </si>
+  <si>
+    <t>Chạy m6 (Có gắn @Ignore)</t>
+  </si>
+  <si>
+    <t>Chạy m7 (Có @Test(timeout=10))</t>
+  </si>
+  <si>
+    <t>Chạy m8 (Có @Test(expected=...))</t>
+  </si>
+  <si>
+    <t>List không rỗng, kích thước size = 1 sau khi add</t>
+  </si>
+  <si>
+    <t>Test case này bị bỏ qua, không thực thi</t>
+  </si>
+  <si>
+    <t>Hàm thực thi xong trong vòng dưới 10m</t>
+  </si>
+  <si>
+    <t>Ném ra ngoại lệ NoSuchMethodException</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,6 +1196,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1040,7 +1257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1048,11 +1265,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1139,6 +1508,126 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1457,7 +1946,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1925,6 +2414,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -1932,12 +2427,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2495,11 +2984,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A16:I16"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
@@ -2508,6 +2992,11 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2517,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E991154A-FD5A-4322-983F-66BCA9A8D4CA}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3065,6 +3554,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
@@ -3073,11 +3567,6 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3088,7 +3577,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3665,6 +4154,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
@@ -3673,11 +4167,6 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3687,7 +4176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466BCE8-4207-4F8F-9724-4FDD42CD12E0}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -4445,6 +4934,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S10:T10"/>
     <mergeCell ref="S21:T21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
@@ -4456,12 +4951,1274 @@
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S10:T10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001A88F2-F762-404B-ACCA-5F475098A179}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="52"/>
+    <col min="3" max="3" width="11.81640625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="52" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29.5" customHeight="1" thickBot="1">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="K2" s="74"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A7" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="55">
+        <v>42396</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1"/>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1">
+      <c r="A10" s="54">
+        <v>1</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="F10" s="54">
+        <v>1</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1">
+      <c r="A11" s="54">
+        <v>2</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="F11" s="54">
+        <v>2</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1">
+      <c r="A12" s="54">
+        <v>3</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="F12" s="54">
+        <v>3</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1">
+      <c r="A13" s="54">
+        <v>4</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="F13" s="54">
+        <v>4</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="62"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1"/>
+    <row r="17" spans="1:11" ht="29" customHeight="1" thickBot="1">
+      <c r="A17" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+    </row>
+    <row r="18" spans="1:11" ht="31" customHeight="1" thickBot="1">
+      <c r="A18" s="54">
+        <v>1</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" ht="31" customHeight="1" thickBot="1">
+      <c r="A19" s="54">
+        <v>2</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" ht="31" customHeight="1" thickBot="1">
+      <c r="A20" s="54">
+        <v>3</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" ht="28" customHeight="1" thickBot="1">
+      <c r="A21" s="54">
+        <v>4</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+    </row>
+    <row r="22" spans="1:11" ht="29.5" customHeight="1" thickBot="1">
+      <c r="A22" s="54">
+        <v>5</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" ht="29" customHeight="1" thickBot="1">
+      <c r="A23" s="64">
+        <v>6</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE3DFD3-9B6F-4409-B582-9BF0BEC9AEE5}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="52"/>
+    <col min="3" max="3" width="11.81640625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="52" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29.5" customHeight="1" thickBot="1">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="K2" s="74"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A7" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="55">
+        <v>42396</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1"/>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1">
+      <c r="A10" s="54">
+        <v>1</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="F10" s="54">
+        <v>1</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1">
+      <c r="A11" s="54">
+        <v>2</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="F11" s="54">
+        <v>2</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1">
+      <c r="A12" s="54">
+        <v>3</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="F12" s="54">
+        <v>3</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1">
+      <c r="A13" s="54">
+        <v>4</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="F13" s="54">
+        <v>4</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="62"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1"/>
+    <row r="17" spans="1:11" ht="29" customHeight="1" thickBot="1">
+      <c r="A17" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+    </row>
+    <row r="18" spans="1:11" ht="31" customHeight="1" thickBot="1">
+      <c r="A18" s="54">
+        <v>1</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" ht="47.5" customHeight="1" thickBot="1">
+      <c r="A19" s="54">
+        <v>2</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A20" s="54">
+        <v>3</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" ht="28" customHeight="1" thickBot="1">
+      <c r="A21" s="54">
+        <v>4</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+    </row>
+    <row r="22" spans="1:11" ht="29.5" customHeight="1" thickBot="1">
+      <c r="A22" s="54"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" ht="29" customHeight="1" thickBot="1">
+      <c r="A23" s="64"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79E9B25-408C-419C-85FD-43EDDAE1CCBF}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="52"/>
+    <col min="3" max="3" width="11.81640625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="52" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29.5" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1">
+      <c r="A2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K2" s="44"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A7" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="55">
+        <v>42396</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1"/>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1">
+      <c r="A10" s="54">
+        <v>1</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="F10" s="54">
+        <v>1</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1">
+      <c r="A11" s="54">
+        <v>2</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="F11" s="54">
+        <v>2</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1">
+      <c r="A12" s="54">
+        <v>3</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="F12" s="54">
+        <v>3</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1">
+      <c r="A13" s="54">
+        <v>4</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="F13" s="54">
+        <v>4</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="62"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1"/>
+    <row r="17" spans="1:11" ht="29" customHeight="1" thickBot="1">
+      <c r="A17" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+    </row>
+    <row r="18" spans="1:11" ht="31" customHeight="1" thickBot="1">
+      <c r="A18" s="54">
+        <v>1</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" ht="31" customHeight="1" thickBot="1">
+      <c r="A19" s="54">
+        <v>2</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" ht="31" customHeight="1" thickBot="1">
+      <c r="A20" s="54">
+        <v>3</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" ht="28" customHeight="1" thickBot="1">
+      <c r="A21" s="54">
+        <v>4</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+    </row>
+    <row r="22" spans="1:11" ht="29.5" customHeight="1" thickBot="1">
+      <c r="A22" s="54"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" ht="29" customHeight="1" thickBot="1">
+      <c r="A23" s="64"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5130,17 +6887,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5383,17 +7140,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5636,17 +7393,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5887,17 +7644,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6140,17 +7897,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6436,17 +8193,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
